--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697621.890023321</v>
+        <v>2863865.874016985</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4513752.582052696</v>
+        <v>4742170.803150068</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>237.2177930475864</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.8537163848769</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>51.25395846644548</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>264.0943113760189</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>203.7187331146313</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>48.1748559890738</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.33856267650379</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>93.20354419147367</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>322.9639268876602</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.9997822851988</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.38806639660964</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.366887432171</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>3.139541480022729</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>208.2631588479956</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,10 +1612,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>219.4342274761691</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.630258540403</v>
       </c>
       <c r="F16" t="n">
-        <v>134.7806822622886</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948849</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,10 +2058,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.008513159457866</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208379</v>
       </c>
       <c r="V28" t="n">
-        <v>60.94899222869572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>24.40875262509115</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>158.7868437042806</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3667,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>123.7760609888572</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>71.10160029562721</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>231.1360967980554</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.49380289235407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>141.9771778017909</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4028,16 +4030,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>111.5309907175798</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>39.59754480244077</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.2202128354713</v>
+        <v>358.9883481097481</v>
       </c>
       <c r="C2" t="n">
-        <v>518.6385385727397</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4367,13 +4369,13 @@
         <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295002</v>
+        <v>1193.574042295003</v>
       </c>
       <c r="Y2" t="n">
-        <v>969.4793792799751</v>
+        <v>785.2879185946559</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4421,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8726122155155</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="C4" t="n">
-        <v>520.3109006987404</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>884.6912309345025</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>884.6912309345025</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="Y4" t="n">
-        <v>884.6912309345025</v>
+        <v>992.2117929153466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1382.503203996562</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>944.3607311799856</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2232.190957562102</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1813.048494141412</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1404.762370441066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>807.2874622845029</v>
+        <v>963.6125544028811</v>
       </c>
       <c r="C7" t="n">
-        <v>634.7257507677278</v>
+        <v>791.050842886106</v>
       </c>
       <c r="D7" t="n">
-        <v>468.8477579692506</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1516.524240083786</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.497835670078</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>999.1060810034901</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>999.1060810034901</v>
+        <v>1012.274025098915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230547</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1277.130531135514</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4087263891149</v>
+        <v>1008.774500367785</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4087263891149</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>68.4625259617433</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>343.2209805328789</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.062614956869</v>
+        <v>2232.38645698253</v>
       </c>
       <c r="V10" t="n">
-        <v>1005.1071068273</v>
+        <v>1945.43094885296</v>
       </c>
       <c r="W10" t="n">
-        <v>733.0807024135913</v>
+        <v>1673.404544439252</v>
       </c>
       <c r="X10" t="n">
-        <v>733.0807024135913</v>
+        <v>1428.012789772664</v>
       </c>
       <c r="Y10" t="n">
-        <v>505.6610317276996</v>
+        <v>1200.593119086772</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1375.922260460695</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>937.779787644118</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>76.13761321162089</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>76.13761321162089</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>378.5120080483799</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704926</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.118726115959</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.97626269527</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1802.221830945603</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1018.340576705429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1739.37737469043</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1878.297066801229</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>1705.735355284454</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>1539.857362485976</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>1370.099358736714</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>1193.39230469847</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>1193.39230469847</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>1190.221050678245</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>1190.221050678245</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>1276.800735842935</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>1551.55919041407</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>1969.769072182031</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>2429.252939362944</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>2871.511742520589</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>3291.18099174637</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>3638.687885716712</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>3806.880660581044</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>3785.462839286416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>3626.221470584413</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>3380.342024162868</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U13" t="n">
-        <v>3101.909023415973</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V13" t="n">
-        <v>2814.953515286404</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W13" t="n">
-        <v>2542.927110872695</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X13" t="n">
-        <v>2297.535356206108</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>2070.115685520216</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1565.612871192999</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1127.470398376423</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>905.8196635520093</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>905.8196635520093</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.952233961217</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448088</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>76.13761321162089</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>378.5120080483799</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3586.813433454083</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3224.196483387909</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2819.341028798943</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2400.198565378254</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1991.912441677907</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1018.340576705429</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8728193312368</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>772.3111078144617</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>606.4331150159844</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>606.4331150159844</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.797223114421</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.917776692876</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.484775945981</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.529267816412</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.502863402703</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.111108736116</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.691438050224</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5518,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
         <v>306.1208027766299</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5604,7 +5606,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>634.526213836947</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O18" t="n">
         <v>1648.327823655249</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>843.1660143917137</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
         <v>330.8229638057298</v>
@@ -5689,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878941</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5841,10 +5843,10 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5917,43 +5919,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4729.704604581732</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>4729.704604581732</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6072,19 +6074,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>210.9600532992111</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6309,13 +6311,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.727725908489</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C28" t="n">
-        <v>843.1660143917137</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V28" t="n">
-        <v>1952.384174393664</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.357769979955</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.966015313368</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.546344627476</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="29">
@@ -6552,13 +6554,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,22 +6785,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>531.6733301892817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2513.605954495037</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2235.172953748142</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1948.217445618573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,46 +6943,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7153,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,7 +7177,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
         <v>306.1208027766299</v>
@@ -7260,19 +7262,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
         <v>330.8229638057298</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>511.3923006645388</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.714971542188</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035996</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035996</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869393</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3735.060862302633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3735.060862302633</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3735.060862302633</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3330.205407713666</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2911.062944292977</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2502.77682059263</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0016331022817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>1622.20459659609</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>1622.20459659609</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.20459659609</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.195773823502</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T43" t="n">
-        <v>2512.138033117789</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U43" t="n">
-        <v>2233.705032370895</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V43" t="n">
-        <v>1946.749524241325</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W43" t="n">
-        <v>1674.723119827617</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X43" t="n">
-        <v>1429.331365161029</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y43" t="n">
-        <v>1347.01439254249</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2210.278326475954</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.135853659378</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.595264158347</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>2395.798227652156</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>3091.227809869393</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3091.227809869393</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3464.006484081898</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3464.006484081898</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3044.864020661209</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2636.577896960862</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>1044.404249865887</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>1739.37737469043</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1739.37737469043</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>764.2136293346052</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D46" t="n">
-        <v>598.3356365361279</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336625</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>362.9463635497235</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>407.1525905495951</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>305.4286816532919</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>728.3199979646472</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>305.4286816532919</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.720165145261</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>63.76270834200545</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9252,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>537.6417914809772</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-6.119210872682381e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10200,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>305.8360165328637</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,7 +10442,7 @@
         <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>817.497647351161</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>255.8000219838293</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>702.4541234517546</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.9930553783263</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.83637503117211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3636110865065</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34.67467827192601</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1164595011308</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>63.43016517136708</v>
       </c>
       <c r="F16" t="n">
-        <v>40.15930123557271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.1369608195749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="V28" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>84.63380825304864</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>44.28436272291289</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>143.6516710866793</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>146.7649545600646</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>52.9498562502184</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.6516710866787</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>289.573509175509</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>59.30510368402751</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>128.4628789093293</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330138.7312396193</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330138.7312396193</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>330138.7312396193</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>330138.7312396193</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>522743.6368931482</v>
       </c>
       <c r="C2" t="n">
+        <v>522743.6368931484</v>
+      </c>
+      <c r="D2" t="n">
         <v>522743.6368931483</v>
       </c>
-      <c r="D2" t="n">
-        <v>522743.6368931482</v>
-      </c>
       <c r="E2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724245</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
@@ -26344,16 +26346,16 @@
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="O2" t="n">
         <v>513686.1445339185</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>513686.1445339185</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415335.8231724243</v>
-      </c>
-      <c r="P2" t="n">
-        <v>415335.8231724244</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26368,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501598</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877236</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662244</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.563797094</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>651.9520349923861</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
+        <v>806.3323907825761</v>
+      </c>
+      <c r="H4" t="n">
         <v>806.3323907826025</v>
       </c>
-      <c r="H4" t="n">
-        <v>806.3323907826023</v>
-      </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826024</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907825455</v>
       </c>
       <c r="O4" t="n">
-        <v>651.9520349923862</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="P4" t="n">
-        <v>651.9520349923861</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151959.4548264561</v>
+        <v>151959.4548264562</v>
       </c>
       <c r="C6" t="n">
-        <v>294150.7554861662</v>
+        <v>262202.0913930358</v>
       </c>
       <c r="D6" t="n">
-        <v>294150.755486166</v>
+        <v>323499.110563157</v>
       </c>
       <c r="E6" t="n">
-        <v>199341.990174496</v>
+        <v>252806.4643162937</v>
       </c>
       <c r="F6" t="n">
-        <v>356819.2850966002</v>
+        <v>435161.5735373434</v>
       </c>
       <c r="G6" t="n">
-        <v>345661.7649309743</v>
+        <v>435161.5735373433</v>
       </c>
       <c r="H6" t="n">
-        <v>435161.5735373433</v>
+        <v>435161.5735373435</v>
       </c>
       <c r="I6" t="n">
         <v>435161.5735373434</v>
@@ -26546,22 +26548,22 @@
         <v>324147.1081923533</v>
       </c>
       <c r="K6" t="n">
-        <v>435161.5735373434</v>
+        <v>382115.718898571</v>
       </c>
       <c r="L6" t="n">
-        <v>435161.5735373434</v>
+        <v>425769.271810721</v>
       </c>
       <c r="M6" t="n">
-        <v>303725.3263799239</v>
+        <v>282961.4025993556</v>
       </c>
       <c r="N6" t="n">
         <v>435161.5735373434</v>
       </c>
       <c r="O6" t="n">
-        <v>356819.2850966001</v>
+        <v>435161.5735373434</v>
       </c>
       <c r="P6" t="n">
-        <v>356819.2850966001</v>
+        <v>435161.5735373434</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>196.5432550408245</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.3495460784662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>119.5821359351618</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>5.211828993552501</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27616,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>197.0881669284457</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>141.7255765427234</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>138.7218610352663</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>328.833030588585</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>108.5867600896397</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27910,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.90065024659842</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>122.4480280049977</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.785973998768142e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28761,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28989,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30478,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30654,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>362.9463635497235</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>407.1525905495951</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>305.4286816532919</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>728.3199979646472</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>305.4286816532919</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.720165145261</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>63.76270834200545</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35972,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>537.6417914809772</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36057,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165102</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36285,7 +36287,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645636</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>-4.524284588552815e-13</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-3.143474727635478e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>305.8360165328637</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-4.524284588552815e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>817.497647351161</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.720165145261</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>255.8000219838293</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
-        <v>951.720165145261</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>702.4541234517546</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.9930553783263</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2863865.874016985</v>
+        <v>2863340.691647952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916855</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>237.2177930475864</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>253.5915850028969</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>51.25395846644548</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.8656050382418</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.3336739851801</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>203.7187331146313</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.1748559890738</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011783</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.20354419147367</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,19 +1141,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>33.16817547790426</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>48.38806639660964</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>90.59002589087447</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>208.2631588479956</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>104.630258540403</v>
+        <v>71.49788411901457</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948849</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>46.16917954999322</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,13 +2058,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226246</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>99.2861660332424</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>52.00914065545607</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>22.56919457453911</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>67.42894579208379</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>59.41244209702465</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3474,16 +3474,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T37" t="n">
-        <v>158.7868437042806</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>125.6544692828921</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>19.80087630034372</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>69.4540573175256</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>231.1360967980554</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>111.5309907175798</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>225.4986794208561</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.9883481097481</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
         <v>119.3744157384487</v>
@@ -4339,13 +4339,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>599.123834039757</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295003</v>
+        <v>179.9813706190676</v>
       </c>
       <c r="Y2" t="n">
-        <v>785.2879185946559</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992.2117929153466</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4527,13 +4527,13 @@
         <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>992.2117929153466</v>
+        <v>871.1354241898498</v>
       </c>
       <c r="X4" t="n">
-        <v>992.2117929153466</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.2117929153466</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1382.503203996562</v>
+        <v>820.8072974370156</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3607311799856</v>
+        <v>382.6648246204389</v>
       </c>
       <c r="D5" t="n">
-        <v>508.4509463544301</v>
+        <v>350.7954438352875</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272524</v>
+        <v>321.0611030339867</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233704</v>
+        <v>297.2340774835985</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233704</v>
+        <v>297.2340774835985</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947704</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>674.5331706342571</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.967455657689</v>
+        <v>2075.350505591522</v>
       </c>
       <c r="W5" t="n">
-        <v>2232.190957562102</v>
+        <v>1670.495051002555</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.048494141412</v>
+        <v>1251.352587581866</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.762370441066</v>
+        <v>843.0664638815193</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947704</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947704</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342554</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.6125544028811</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>791.050842886106</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606126</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765503</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098915</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1012.274025098915</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.0148405224497</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4816,7 +4816,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1008.774500367785</v>
+        <v>1041.328054693135</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>868.76634317636</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>702.8883503778827</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>533.1303466286199</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>356.4232925903761</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>190.8320176162038</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4992,22 +4992,22 @@
         <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>2510.819457729424</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2232.38645698253</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>1945.43094885296</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W10" t="n">
-        <v>1673.404544439252</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X10" t="n">
-        <v>1428.012789772664</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y10" t="n">
-        <v>1200.593119086772</v>
+        <v>1233.146673412122</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,46 +5047,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766272</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987178</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2193473420839</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E13" t="n">
-        <v>584.4613435928212</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
         <v>463.598980006605</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.264168181403</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E16" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5475,13 +5475,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5518,7 +5518,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
         <v>306.1208027766299</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G19" t="n">
         <v>330.8229638057298</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="20">
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5919,43 +5919,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955484</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113129</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.22078133891</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309252</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173584</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="35">
@@ -6934,46 +6934,46 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257732</v>
@@ -7007,10 +7007,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988633</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7122,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.870508960502</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.437508213608</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>1812.482000084038</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.45559567033</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1295.063841003742</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7165,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7362,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7584,37 +7584,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.67908147158</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050035</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.36663430314</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V43" t="n">
-        <v>1801.895829456619</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W43" t="n">
-        <v>1529.869425042911</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X43" t="n">
-        <v>1284.477670376323</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7654,43 +7654,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7724,25 +7724,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C46" t="n">
-        <v>699.0971113069977</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>533.2191185085204</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335019</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>512.4570950335051</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188034</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8379,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>362.9463635497235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463107</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>-6.119210872682381e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11074,13 +11074,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.62918697961805</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.67467827192601</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>63.43016517136708</v>
+        <v>96.56253959275554</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627208</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>122.9308428424053</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>135.0797604404442</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>216.236228642401</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T37" t="n">
-        <v>84.63380825304864</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>88.19489769745771</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>52.9498562502184</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>59.30510368402751</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>58.58727362741772</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522743.6368931483</v>
+      </c>
+      <c r="C2" t="n">
         <v>522743.6368931482</v>
-      </c>
-      <c r="C2" t="n">
-        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
         <v>513686.1445339185</v>
@@ -26331,13 +26331,13 @@
         <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
         <v>513686.1445339185</v>
@@ -26346,16 +26346,16 @@
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501598</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877236</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662244</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>121997.563797094</v>
+        <v>121997.5637970937</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782602</v>
       </c>
       <c r="F4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825761</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907825455</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>151959.4548264562</v>
       </c>
       <c r="C6" t="n">
-        <v>262202.0913930358</v>
+        <v>262202.0913930354</v>
       </c>
       <c r="D6" t="n">
-        <v>323499.110563157</v>
+        <v>323499.1105631576</v>
       </c>
       <c r="E6" t="n">
-        <v>252806.4643162937</v>
+        <v>252783.2399769111</v>
       </c>
       <c r="F6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979606</v>
       </c>
       <c r="G6" t="n">
-        <v>435161.5735373433</v>
+        <v>435138.3491979606</v>
       </c>
       <c r="H6" t="n">
-        <v>435161.5735373435</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="I6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="J6" t="n">
-        <v>324147.1081923533</v>
+        <v>324123.8838529705</v>
       </c>
       <c r="K6" t="n">
-        <v>382115.718898571</v>
+        <v>382092.4945591879</v>
       </c>
       <c r="L6" t="n">
-        <v>425769.271810721</v>
+        <v>425746.0474713387</v>
       </c>
       <c r="M6" t="n">
-        <v>282961.4025993556</v>
+        <v>282938.1782599732</v>
       </c>
       <c r="N6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="O6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979607</v>
       </c>
       <c r="P6" t="n">
-        <v>435161.5735373434</v>
+        <v>435138.3491979606</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,7 +26822,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
         <v>1278.260503384745</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>196.5432550408245</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>147.2153150401801</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>119.5821359351618</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>149.4405353313296</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>41.90517902603582</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>197.0881669284457</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.7255765427234</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382474</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>328.833030588585</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.6387245651728</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>122.4480280049977</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.446659489829727</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.817562007254101e-12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335019</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684648</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>512.4570950335051</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188034</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>362.9463635497235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463107</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36287,7 +36287,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645636</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>-4.524284588552815e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.143474727635478e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-4.524284588552815e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37469,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37794,13 +37794,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
